--- a/biology/Botanique/Rosier_ADR/Rosier_ADR.xlsx
+++ b/biology/Botanique/Rosier_ADR/Rosier_ADR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un rosier ADR est un rosier ayant obtenu le certificat d'approbation de la rose allemande (Anerkannte Deutsche Rose) récompensant les variétés de roses ayant réussi des tests de culture drastiques effectués dans onze différents « jardins d'agrément ADR » (jardins d'essai) en Allemagne. Ce label est considéré comme un des plus difficiles à obtenir dans le monde[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un rosier ADR est un rosier ayant obtenu le certificat d'approbation de la rose allemande (Anerkannte Deutsche Rose) récompensant les variétés de roses ayant réussi des tests de culture drastiques effectués dans onze différents « jardins d'agrément ADR » (jardins d'essai) en Allemagne. Ce label est considéré comme un des plus difficiles à obtenir dans le monde.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La procédure générale de test des nouveaux rosiers ADR (pour Allgemeine Deutsche Rosenneuheitenprüfung) a été créée en 1950 par les producteurs allemands (principalement à l'instigation de Wilhelm Kordes) dans les pépinières gouvernementales fédérales allemandes.
 Environ 50 cultivars sont jugés chaque année et plus de 2 000 cultivars ont été testés depuis la création du prix. Les rosiers perdant leurs normes de qualité sur une durée plus longue perdent le certificat. En novembre 2013, 161 cultivars sont reconnus ADR.
@@ -544,7 +558,9 @@
           <t>Critères de sélection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test ADR consiste à cultiver un rosier pendant trois ou quatre ans sans aucune utilisation de pesticide. Si le rosier reste en bonne santé et dispose des valeurs recherchées ci-dessous, il remporte le label ADR.
 Rusticité
@@ -588,7 +604,9 @@
           <t>Les jardins d'essai</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les onze jardins d'essai sont situés dans les villes et les collectivités suivantes et sont également en partie accessibles au public.
 Du nord au sud de l'Allemagne :
@@ -631,6 +649,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -657,6 +677,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,7 +704,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
